--- a/data/biometry_2016_ew.xlsx
+++ b/data/biometry_2016_ew.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva Michel\VirtualBox VMs\SciViews Box 2018a\shared\projects\sdd1_biometry-elisa-eva-marie-mathilde\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC87265-7440-4A6B-9DBD-C05DC64A3A4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biometry_2016" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="208">
   <si>
     <t>gender</t>
   </si>
@@ -643,8 +649,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,11 +687,5613 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE"/>
+              <a:t>Biométrie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-BE" baseline="0"/>
+              <a:t> humaine (2016)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>biometry_2016!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>biometry_2016!$A$2:$B$255</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="254"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1995-03-11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1998-04-03</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1967-04-04</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1994-02-10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1990-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1994-07-15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1971-03-03</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1997-06-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1972-10-26</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1945-03-15</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993-01-29</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1966-11-26</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1968-07-30</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1962-09-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997-11-03</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1994-09-17</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1964-07-31</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1952-08-07</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1937-07-31</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1996-09-19</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1992-06-12</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1953-06-12</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1960-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1996-06-24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1994-09-02</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1995-08-04</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1994-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1990-11-02</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1985-02-19</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1964-12-05</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1991-01-06</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1989-12-22</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1996-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1993-07-23</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1993-03-27</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>1996-04-12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1974-07-25</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1974-02-03</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1994-03-02</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1964-06-02</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>1963-11-18</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>1994-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>1937-04-13</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>1995-01-22</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1966-10-02</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>1980-06-04</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>1993-11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>1994-07-28</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>1988-08-30</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>1989-10-13</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>1990-02-20</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>1989-10-23</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>1964-03-12</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>1993-06-01</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>1994-07-10</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>1964-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>1963-07-23</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>1995-09-28</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>1961-09-03</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>1990-03-22</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>1963-07-11</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>1992-02-20</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>1968-03-18</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>1966-12-25</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>1944-04-11</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>1987-08-07</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>1990-06-21</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>1994-07-12</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>1994-02-11</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>1997-03-03</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>1966-03-19</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>1988-01-16</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>1988-10-05</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>1960-04-06</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1994-08-02</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>1994-04-03</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1959-04-16</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>1991-10-11</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>1994-08-28</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>1993-01-02</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>1990-03-28</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>1956-06-08</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>1960-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>1962-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>1995-09-28</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>1966-04-08</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>1987-09-10</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>1987-02-03</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1995-11-05</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>1996-06-09</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1992-11-09</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>1995-07-29</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1997-06-03</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1960-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>1995-10-27</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>1963-11-21</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1995-10-01</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>1961-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1988-09-10</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1966-01-16</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>1995-04-16</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>1969-06-12</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>1967-11-09</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>1972-06-25</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>1997-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>1970-06-09</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>1946-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>1942-12-18</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>1968-01-30</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>1966-10-05</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>1996-12-19</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>1993-11-17</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>1993-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1979-03-21</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>1960-11-07</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>1934-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>1994-01-29</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>1966-07-02</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>1967-02-10</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>1968-02-03</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>1993-03-24</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>1983-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>1976-09-07</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>1986-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>1986-11-06</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>1984-09-23</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>1994-03-01</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>1965-01-21</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>1962-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>1960-09-21</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>1960-06-26</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>1994-06-06</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>1990-09-03</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>1953-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>1954-12-31</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>1997-12-11</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>1994-03-02</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>1969-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>1968-02-27</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>1993-08-16</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>1995-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>1991-03-20</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>1993-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>1994-01-05</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>1991-10-22</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>1990-06-21</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>1963-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>1995-03-15</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>1962-11-30</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>1966-08-10</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>1995-10-17</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>1938-05-30</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>1939-09-30</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>1969-06-06</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>1995-10-24</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>1967-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>1968-03-02</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>1945-03-23</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>1934-06-03</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>1994-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>1955-03-29</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>1967-08-21</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>1963-11-01</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>1992-10-27</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>1961-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>1963-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>1954-08-22</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>1978-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>1942-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>1939-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>1991-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>1957-08-21</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>1966-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>1963-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>1943-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>1933-08-27</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>1931-08-28</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>1953-08-22</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>1960-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>1963-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>1979-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>1964-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>1989-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>1989-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>1959-08-21</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>2000-08-11</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>1999-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>1964-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>1966-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>1927-08-29</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>1967-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>1940-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="230">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="231">
+                    <c:v>1982-08-16</c:v>
+                  </c:pt>
+                  <c:pt idx="232">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="233">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="234">
+                    <c:v>1987-08-15</c:v>
+                  </c:pt>
+                  <c:pt idx="235">
+                    <c:v>1973-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>1982-08-16</c:v>
+                  </c:pt>
+                  <c:pt idx="237">
+                    <c:v>1940-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="238">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="239">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="241">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="242">
+                    <c:v>1969-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="244">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="245">
+                    <c:v>1966-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="246">
+                    <c:v>1987-08-15</c:v>
+                  </c:pt>
+                  <c:pt idx="247">
+                    <c:v>1971-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="248">
+                    <c:v>1991-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="249">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="250">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="251">
+                    <c:v>1999-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="252">
+                    <c:v>1977-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="253">
+                    <c:v>1948-08-23</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="230">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="231">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="232">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="233">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="234">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="235">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="237">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="238">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="239">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="241">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="242">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="244">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="245">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="246">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="247">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="248">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="249">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="250">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="251">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="252">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="253">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>biometry_2016!$D$2:$D$255</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>59.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>55.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>63.42</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>95.23</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>80.58</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>87.63</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>78.45</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>59.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0529-493C-A1E9-A2C1BB3F366F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>biometry_2016!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>height</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>biometry_2016!$A$2:$B$255</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="254"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1995-03-11</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1998-04-03</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1967-04-04</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1994-02-10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1990-12-02</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1994-07-15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1971-03-03</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1997-06-24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1972-10-26</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1945-03-15</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1993-01-29</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1966-11-26</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1968-07-30</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1962-09-30</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1997-11-03</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1994-09-17</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1964-07-31</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1952-08-07</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1937-07-31</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1996-09-19</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1992-06-12</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1953-06-12</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1960-05-10</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1996-06-24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1994-09-02</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1995-08-04</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1994-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1990-11-02</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1985-02-19</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1964-12-05</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1991-01-06</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1989-12-22</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1996-05-24</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1993-07-23</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1993-03-27</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>1996-04-12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1974-07-25</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1974-02-03</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1994-03-02</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1964-06-02</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>1963-11-18</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>1994-05-02</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>1937-04-13</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>1995-01-22</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1966-10-02</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>1980-06-04</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>1993-11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>1994-07-28</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>1988-08-30</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>1989-10-13</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>1990-02-20</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>1989-10-23</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>1964-03-12</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>1993-06-01</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>1994-07-10</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>1964-05-08</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>1963-07-23</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>1995-09-28</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>1961-09-03</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>1990-03-22</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>1963-07-11</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>1992-02-20</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>1968-03-18</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>1966-12-25</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>1944-04-11</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>1987-08-07</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>1990-06-21</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>1994-07-12</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>1994-02-11</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>1997-03-03</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>1966-03-19</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>1988-01-16</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>1988-10-05</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>1960-04-06</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>1994-08-02</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>1994-04-03</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>1959-04-16</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>1991-10-11</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>1994-08-28</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>1993-01-02</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>1990-03-28</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>1956-06-08</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>1960-04-17</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>1962-01-31</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>1995-09-28</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>1966-04-08</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>1987-09-10</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>1987-02-03</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1995-11-05</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>1996-06-09</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1992-11-09</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>1995-07-29</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1997-06-03</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>1960-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>1995-10-27</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>1963-11-21</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>1995-10-01</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>1961-05-19</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>1988-09-10</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1966-01-16</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>1995-04-16</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>1969-06-12</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>1967-11-09</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>1972-06-25</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>1997-05-23</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>1970-06-09</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>1946-05-06</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>1942-12-18</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>1968-01-30</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>1966-10-05</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>1996-12-19</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>1993-11-17</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>1993-02-07</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1979-03-21</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>1960-11-07</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>1934-04-24</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>1994-01-29</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>1966-07-02</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>1967-02-10</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>1968-02-03</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>1993-03-24</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>1983-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>1976-09-07</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>1986-04-22</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>1986-11-06</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>1984-09-23</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>1994-03-01</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>1965-01-21</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>1962-01-03</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>1960-09-21</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>1960-06-26</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>1994-06-06</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>1990-09-03</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>1953-05-21</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>1954-12-31</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>1997-12-11</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>1994-03-02</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>1969-05-25</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>1968-02-27</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>1993-08-16</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>1995-04-23</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>1991-03-20</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>1993-04-30</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>1994-01-05</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>1991-10-22</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>1990-06-21</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>1963-04-27</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>1995-03-15</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>1962-11-30</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>1966-08-10</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>1995-10-17</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>1938-05-30</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>1939-09-30</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>1969-06-06</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>1995-10-24</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>1967-05-15</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>1968-03-02</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>1945-03-23</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>1934-06-03</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>1994-02-14</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>1955-03-29</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>1967-08-21</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>1963-11-01</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>1992-10-27</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>1961-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>1963-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>1954-08-22</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>1978-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>1942-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>1939-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>1991-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>1957-08-21</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>1966-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>1963-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>1943-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>1933-08-27</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>1931-08-28</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>1953-08-22</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>1960-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>1963-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>1979-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>1962-08-20</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>1964-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>1989-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>1989-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>1959-08-21</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>2000-08-11</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>1999-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>1964-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>1966-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>1927-08-29</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>1965-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>1967-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>1940-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>1994-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="230">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="231">
+                    <c:v>1982-08-16</c:v>
+                  </c:pt>
+                  <c:pt idx="232">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="233">
+                    <c:v>1993-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="234">
+                    <c:v>1987-08-15</c:v>
+                  </c:pt>
+                  <c:pt idx="235">
+                    <c:v>1973-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>1982-08-16</c:v>
+                  </c:pt>
+                  <c:pt idx="237">
+                    <c:v>1940-08-26</c:v>
+                  </c:pt>
+                  <c:pt idx="238">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="239">
+                    <c:v>1998-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>1968-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="241">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="242">
+                    <c:v>1969-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="244">
+                    <c:v>1996-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="245">
+                    <c:v>1966-08-19</c:v>
+                  </c:pt>
+                  <c:pt idx="246">
+                    <c:v>1987-08-15</c:v>
+                  </c:pt>
+                  <c:pt idx="247">
+                    <c:v>1971-08-18</c:v>
+                  </c:pt>
+                  <c:pt idx="248">
+                    <c:v>1991-08-14</c:v>
+                  </c:pt>
+                  <c:pt idx="249">
+                    <c:v>1997-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="250">
+                    <c:v>1995-08-13</c:v>
+                  </c:pt>
+                  <c:pt idx="251">
+                    <c:v>1999-08-12</c:v>
+                  </c:pt>
+                  <c:pt idx="252">
+                    <c:v>1977-08-17</c:v>
+                  </c:pt>
+                  <c:pt idx="253">
+                    <c:v>1948-08-23</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="230">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="231">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="232">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="233">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="234">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="235">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="237">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="238">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="239">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="241">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="242">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="244">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="245">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="246">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="247">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="248">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="249">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="250">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="251">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="252">
+                    <c:v>H</c:v>
+                  </c:pt>
+                  <c:pt idx="253">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>biometry_2016!$E$2:$E$255</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>173.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>173.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>173.3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>178.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>152.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0529-493C-A1E9-A2C1BB3F366F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457879584"/>
+        <c:axId val="457881552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457879584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457881552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457881552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457879584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886F3EF9-D91C-411B-9973-E9BD00AE9833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -727,7 +6335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +6367,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,6 +6419,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,14 +6612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +6642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +6665,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +6688,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +6711,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +6734,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +6757,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +6780,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +6803,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +6826,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +6849,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +6872,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1245,13 +6889,13 @@
         <v>171</v>
       </c>
       <c r="F12">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G12">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +6918,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +6941,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +6964,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +6987,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1360,13 +7004,13 @@
         <v>165</v>
       </c>
       <c r="F17">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G17">
         <v>2013</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +7033,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +7056,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1435,7 +7079,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +7102,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +7125,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +7148,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +7171,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1550,7 +7194,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +7217,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +7240,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +7263,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +7286,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +7309,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +7332,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +7355,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +7378,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +7401,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +7424,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +7447,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +7470,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +7493,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +7516,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +7539,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +7562,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +7585,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +7608,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +7631,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2004,13 +7648,13 @@
         <v>172</v>
       </c>
       <c r="F45">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G45">
         <v>2013</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2027,13 +7671,13 @@
         <v>162</v>
       </c>
       <c r="F46">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G46">
         <v>2013</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2050,13 +7694,13 @@
         <v>182</v>
       </c>
       <c r="F47">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G47">
         <v>2013</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +7723,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +7746,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +7769,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +7792,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +7815,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +7838,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +7861,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2240,7 +7884,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2263,7 +7907,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2286,7 +7930,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +7953,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +7976,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +7999,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +8022,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2401,7 +8045,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +8068,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -2444,7 +8088,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +8108,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2487,7 +8131,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +8154,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +8177,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +8200,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +8223,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2602,7 +8246,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +8269,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2648,7 +8292,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2671,7 +8315,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +8338,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2717,7 +8361,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +8384,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2763,7 +8407,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +8430,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2809,7 +8453,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -2832,7 +8476,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2855,7 +8499,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +8522,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -2901,7 +8545,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2924,7 +8568,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +8579,7 @@
         <v>1995</v>
       </c>
       <c r="D86">
-        <v>66.6</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="E86">
         <v>175</v>
@@ -2947,7 +8591,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +8614,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +8637,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3016,7 +8660,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -3039,7 +8683,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -3062,7 +8706,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3085,7 +8729,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3108,7 +8752,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3131,7 +8775,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -3154,7 +8798,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +8821,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +8844,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -3223,7 +8867,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +8890,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3269,7 +8913,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +8936,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +8959,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3338,7 +8982,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -3361,7 +9005,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -3384,7 +9028,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -3407,7 +9051,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +9074,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -3453,7 +9097,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3476,7 +9120,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3499,7 +9143,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +9166,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +9189,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3568,7 +9212,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -3591,7 +9235,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +9258,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +9281,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3660,7 +9304,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -3683,7 +9327,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3706,7 +9350,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3729,7 +9373,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +9396,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3775,7 +9419,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3798,7 +9442,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +9465,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3838,13 +9482,13 @@
         <v>170</v>
       </c>
       <c r="F125">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G125">
         <v>2014</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +9511,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3884,13 +9528,13 @@
         <v>180</v>
       </c>
       <c r="F127">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G127">
         <v>2014</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +9557,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3936,7 +9580,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +9603,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -3982,7 +9626,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +9649,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4028,7 +9672,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4051,7 +9695,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +9718,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +9741,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4120,7 +9764,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -4143,7 +9787,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -4154,7 +9798,7 @@
         <v>1969</v>
       </c>
       <c r="D139">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E139">
         <v>164</v>
@@ -4166,7 +9810,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4189,7 +9833,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +9856,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4223,7 +9867,7 @@
         <v>1995</v>
       </c>
       <c r="D142">
-        <v>73.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E142">
         <v>192</v>
@@ -4235,7 +9879,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +9902,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4281,7 +9925,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4304,7 +9948,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4327,7 +9971,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4350,7 +9994,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -4373,7 +10017,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4396,7 +10040,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4419,7 +10063,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -4442,7 +10086,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4465,7 +10109,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4488,7 +10132,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -4511,7 +10155,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -4534,7 +10178,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -4557,7 +10201,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +10224,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -4603,7 +10247,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +10270,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +10293,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4672,7 +10316,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -4695,7 +10339,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -4718,7 +10362,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -4741,7 +10385,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +10408,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -4787,7 +10431,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -4810,7 +10454,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -4833,7 +10477,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -4856,7 +10500,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -4879,7 +10523,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -4902,7 +10546,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +10569,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +10592,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -4971,7 +10615,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -4994,7 +10638,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -5017,7 +10661,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -5040,7 +10684,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +10707,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -5086,7 +10730,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +10753,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -5132,7 +10776,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -5155,7 +10799,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +10822,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5201,7 +10845,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -5224,7 +10868,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -5247,7 +10891,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -5270,7 +10914,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -5293,7 +10937,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +10960,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +10983,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5362,7 +11006,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +11029,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -5408,7 +11052,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -5431,7 +11075,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -5454,7 +11098,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -5477,7 +11121,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -5500,7 +11144,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -5523,7 +11167,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -5546,7 +11190,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -5569,7 +11213,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -5592,7 +11236,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -5615,7 +11259,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -5638,7 +11282,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +11305,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5684,7 +11328,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -5707,7 +11351,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -5730,7 +11374,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -5753,7 +11397,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -5776,7 +11420,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -5799,7 +11443,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -5822,7 +11466,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -5833,7 +11477,7 @@
         <v>1989</v>
       </c>
       <c r="D212">
-        <v>66.1</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E212">
         <v>176</v>
@@ -5845,7 +11489,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +11512,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -5891,7 +11535,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -5914,7 +11558,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5925,10 +11569,10 @@
         <v>1965</v>
       </c>
       <c r="D216">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E216">
-        <v>152.2</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="F216">
         <v>16.2</v>
@@ -5937,7 +11581,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -5960,7 +11604,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -5983,7 +11627,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -6006,7 +11650,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -6029,7 +11673,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +11696,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -6075,7 +11719,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -6098,7 +11742,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -6121,7 +11765,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -6144,7 +11788,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -6167,7 +11811,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -6190,7 +11834,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -6213,7 +11857,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -6236,7 +11880,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -6259,7 +11903,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -6282,7 +11926,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -6305,7 +11949,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -6328,7 +11972,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -6351,7 +11995,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -6374,7 +12018,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -6397,7 +12041,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -6420,7 +12064,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6431,7 +12075,7 @@
         <v>1982</v>
       </c>
       <c r="D238">
-        <v>73.1</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E238">
         <v>164</v>
@@ -6443,7 +12087,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -6466,7 +12110,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +12133,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -6512,7 +12156,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -6535,7 +12179,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -6558,7 +12202,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -6581,7 +12225,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -6604,7 +12248,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -6627,7 +12271,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6650,7 +12294,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -6673,7 +12317,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -6696,7 +12340,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -6719,7 +12363,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -6742,7 +12386,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -6765,7 +12409,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -6788,7 +12432,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -6811,7 +12455,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -6836,5 +12480,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>